--- a/chitons.eco.data.xlsx
+++ b/chitons.eco.data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Documentos\Git\2023_Ecology_chitons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Documentos\R sessions\Chiton Ecology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BA2652-0117-42BA-92B9-B1F74D3BA740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DDD625-3F31-4920-B99D-F97833CA134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="18">
   <si>
     <t>Buzios</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Expo.area</t>
-  </si>
-  <si>
     <t>Cov.Bryo</t>
   </si>
   <si>
@@ -86,6 +83,12 @@
   </si>
   <si>
     <t>Samp.time</t>
+  </si>
+  <si>
+    <t>Area.total</t>
+  </si>
+  <si>
+    <t>Area.lateral</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,13 +420,14 @@
     <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -431,7 +435,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -443,10 +447,10 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -455,16 +459,19 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -483,18 +490,18 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
+        <v>144.9</v>
+      </c>
+      <c r="H2" s="1">
         <v>208.05</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>58.569999999999986</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>27.619999999999994</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
@@ -502,10 +509,13 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
         <v>0.95333333333333314</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -524,29 +534,32 @@
       <c r="F3">
         <v>6</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
+        <v>238.38</v>
+      </c>
+      <c r="H3" s="1">
         <v>495.06000000000006</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>49.642499999999991</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>28.929999999999996</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>7.8549999999999995</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
       <c r="L3" s="1">
         <v>0</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -565,18 +578,18 @@
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
+        <v>155.32</v>
+      </c>
+      <c r="H4" s="1">
         <v>342.59000000000003</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>72.500000000000014</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>2.8575000000000004</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
@@ -586,8 +599,11 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -606,29 +622,32 @@
       <c r="F5">
         <v>15</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
+        <v>480.7</v>
+      </c>
+      <c r="H5" s="1">
         <v>698.3599999999999</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>64.287500000000009</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>14.2875</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>1.0725</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>5.7125000000000004</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1.7849999999999997</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>7.1425000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -647,29 +666,32 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="H6" s="1">
         <v>172.49</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>68.924999999999983</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>14.644999999999996</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.71499999999999986</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
       <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>1.0724999999999998</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>1.7849999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -688,29 +710,32 @@
       <c r="F7">
         <v>4.5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
+        <v>308.55</v>
+      </c>
+      <c r="H7" s="1">
         <v>233.39999999999998</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>77.5</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>13.570000000000002</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
       <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
         <v>4.2874999999999996</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
       <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>2.8574999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -729,29 +754,32 @@
       <c r="F8">
         <v>11.5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
+        <v>357.67</v>
+      </c>
+      <c r="H8" s="1">
         <v>199.70000000000002</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>70.712500000000006</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>7.5</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>1.7849999999999997</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>3.2149999999999999</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
       <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>8.5724999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -770,29 +798,32 @@
       <c r="F9">
         <v>7.5</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
+        <v>251.54</v>
+      </c>
+      <c r="H9" s="1">
         <v>265.05</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>78.927499999999981</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>9.6424999999999983</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>1.7849999999999997</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>3.214999999999999</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>1.4274999999999998</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>3.214999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -811,29 +842,32 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
+        <v>160.88</v>
+      </c>
+      <c r="H10" s="1">
         <v>116</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>54.927499999999988</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>4.5724999999999998</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.35749999999999993</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>28.249999999999996</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>1.0724999999999998</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -852,29 +886,32 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
+        <v>113.42</v>
+      </c>
+      <c r="H11" s="1">
         <v>137.22000000000003</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>71.75</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>22.25</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.25</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>2.25</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -893,29 +930,32 @@
       <c r="F12">
         <v>20</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
+        <v>593.51</v>
+      </c>
+      <c r="H12" s="1">
         <v>639.37</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>57.502499999999998</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>34.284999999999997</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>1.4275</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>2.145</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
       <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>0.35749999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -934,29 +974,32 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
+        <v>98</v>
+      </c>
+      <c r="H13" s="1">
         <v>66.72999999999999</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>65.002499999999998</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>14.2875</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>7.1425000000000001</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>7.5</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -975,29 +1018,32 @@
       <c r="F14">
         <v>1.5</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
+        <v>93.24</v>
+      </c>
+      <c r="H14" s="1">
         <v>142.81</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>87.85499999999999</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>4.6449999999999996</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>3.9275000000000002</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1016,29 +1062,32 @@
       <c r="F15">
         <v>10</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
+        <v>349.75</v>
+      </c>
+      <c r="H15" s="1">
         <v>280.3</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>62.142499999999984</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>8.2149999999999981</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>9.6449999999999978</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>3.5724999999999993</v>
       </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
       <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
         <v>2.1424999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1057,29 +1106,32 @@
       <c r="F16">
         <v>17</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
+        <v>412.73</v>
+      </c>
+      <c r="H16" s="1">
         <v>427.26</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>75.717499999999973</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>10.002499999999996</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>2.8574999999999995</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>4.6449999999999987</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
       <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>0.71499999999999975</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1098,29 +1150,32 @@
       <c r="F17">
         <v>1.9</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
+        <v>160.54</v>
+      </c>
+      <c r="H17" s="1">
         <v>124.69</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>67.142499999999998</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>22.139999999999997</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>5.714999999999999</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>0.71499999999999986</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
       <c r="M17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1139,29 +1194,32 @@
       <c r="F18">
         <v>1.8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
+        <v>116.33</v>
+      </c>
+      <c r="H18" s="1">
         <v>124.16</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>74.997500000000002</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>4.2874999999999996</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
       <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
         <v>11.4275</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
       <c r="M18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1180,29 +1238,32 @@
       <c r="F19">
         <v>2.5</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
+        <v>609.86</v>
+      </c>
+      <c r="H19" s="1">
         <v>201.32</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>83.81</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>11.426666666666668</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>2.3833333333333333</v>
       </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
       <c r="L19" s="1">
         <v>0</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1221,29 +1282,32 @@
       <c r="F20">
         <v>2.5</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
+        <v>151.11000000000001</v>
+      </c>
+      <c r="H20" s="1">
         <v>134.02000000000001</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>76.070000000000007</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>16.787500000000001</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>0.35749999999999998</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>2.1425000000000001</v>
       </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
       <c r="M20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1262,29 +1326,32 @@
       <c r="F21">
         <v>15.2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
+        <v>372.46</v>
+      </c>
+      <c r="H21" s="1">
         <v>224.3</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>59.999999999999979</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>17.502499999999994</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>1.0699999999999998</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>9.6424999999999983</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>7.4999999999999982</v>
       </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1303,29 +1370,32 @@
       <c r="F22">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
+        <v>203.4</v>
+      </c>
+      <c r="H22" s="1">
         <v>320.54000000000002</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>59.64250000000002</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>21.070000000000004</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>10.357500000000002</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>3.2150000000000003</v>
       </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
       <c r="M22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1344,29 +1414,32 @@
       <c r="F23">
         <v>1.7</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="H23" s="1">
         <v>103.43</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>72.14500000000001</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>18.572499999999998</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>5.3550000000000004</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="L23" s="1">
-        <v>0</v>
-      </c>
       <c r="M23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1385,29 +1458,32 @@
       <c r="F24">
         <v>25</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
+        <v>829.67</v>
+      </c>
+      <c r="H24" s="1">
         <v>586.48</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>80.712499999999977</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>5.714999999999999</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>1.4299999999999997</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>7.1424999999999992</v>
       </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
       <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
         <v>1.0724999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1426,29 +1502,32 @@
       <c r="F25">
         <v>7.5</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25">
+        <v>371.42</v>
+      </c>
+      <c r="H25" s="1">
         <v>183.79</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>67.857499999999987</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>10.359999999999998</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>1.0724999999999998</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>3.214999999999999</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>3.5724999999999993</v>
       </c>
-      <c r="M25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1467,29 +1546,32 @@
       <c r="F26">
         <v>3.5</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26">
+        <v>200.87</v>
+      </c>
+      <c r="H26" s="1">
         <v>166.77</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>82.499999999999986</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>8.572499999999998</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>1.7849999999999997</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>5</v>
       </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
       <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
         <v>0.35499999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1508,29 +1590,32 @@
       <c r="F27">
         <v>4</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27">
+        <v>242.7</v>
+      </c>
+      <c r="H27" s="1">
         <v>188.23000000000002</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>51.785000000000004</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>34.287500000000001</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>6.07</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>1.7849999999999997</v>
       </c>
-      <c r="L27" s="1">
-        <v>0</v>
-      </c>
       <c r="M27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1549,29 +1634,32 @@
       <c r="F28">
         <v>3.8</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28">
+        <v>176.79</v>
+      </c>
+      <c r="H28" s="1">
         <v>178.98000000000002</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>36.787500000000001</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>16.072499999999998</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>14.6425</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>2.1425000000000001</v>
       </c>
-      <c r="L28" s="1">
-        <v>0</v>
-      </c>
       <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
         <v>1.4275</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1590,29 +1678,32 @@
       <c r="F29">
         <v>9.5</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29">
+        <v>349.01</v>
+      </c>
+      <c r="H29" s="1">
         <v>250.34999999999997</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>45.359999999999985</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>20.357499999999995</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>28.56999999999999</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>0.71499999999999975</v>
       </c>
-      <c r="L29" s="1">
-        <v>0</v>
-      </c>
       <c r="M29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1631,29 +1722,32 @@
       <c r="F30">
         <v>9</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30">
+        <v>504.7</v>
+      </c>
+      <c r="H30" s="1">
         <v>250.1</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>89.642500000000013</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>1.7874999999999999</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>4.9975000000000005</v>
       </c>
-      <c r="L30" s="1">
-        <v>0</v>
-      </c>
       <c r="M30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1672,29 +1766,32 @@
       <c r="F31">
         <v>3</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31">
+        <v>168.28</v>
+      </c>
+      <c r="H31" s="1">
         <v>148.38</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>50.712499999999991</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>15</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>15.357499999999998</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>10.715</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>4.2874999999999996</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>2.1425000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1713,29 +1810,32 @@
       <c r="F32">
         <v>9</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32">
+        <v>356.85</v>
+      </c>
+      <c r="H32" s="1">
         <v>253.56</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>57.857500000000009</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
       <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
         <v>2.8575000000000004</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>20.710000000000004</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>9.2850000000000019</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>4.6450000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1754,29 +1854,32 @@
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33">
+        <v>172.68</v>
+      </c>
+      <c r="H33" s="1">
         <v>94.789999999999992</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>50</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>7.62</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>23.810000000000002</v>
       </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
       <c r="L33" s="1">
         <v>0</v>
       </c>
       <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
         <v>9.5233333333333334</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1795,29 +1898,32 @@
       <c r="F34">
         <v>5.5</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34">
+        <v>227.82</v>
+      </c>
+      <c r="H34" s="1">
         <v>351.5</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>36.432499999999997</v>
       </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
       <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
         <v>12.8575</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>14.285</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>9.2874999999999996</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>16.785</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1836,29 +1942,32 @@
       <c r="F35">
         <v>17</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35">
+        <v>462.14</v>
+      </c>
+      <c r="H35" s="1">
         <v>419.33</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>5.7149999999999999</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>1.0725</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>59.645000000000017</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>1.0725</v>
       </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
       <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
         <v>7.4974999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1877,29 +1986,32 @@
       <c r="F36">
         <v>8</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36">
+        <v>404.7</v>
+      </c>
+      <c r="H36" s="1">
         <v>192.35999999999999</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>36.07</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>5.3574999999999999</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>32.86</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>3.9249999999999998</v>
       </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
       <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
         <v>14.6425</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1918,29 +2030,32 @@
       <c r="F37">
         <v>3</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37">
+        <v>175.21</v>
+      </c>
+      <c r="H37" s="1">
         <v>82.78</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>73.929999999999993</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>10.7125</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>15.357499999999998</v>
       </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
       <c r="L37" s="1">
         <v>0</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1959,29 +2074,32 @@
       <c r="F38">
         <v>25</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38">
+        <v>425.12</v>
+      </c>
+      <c r="H38" s="1">
         <v>469.32</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>33.93</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <v>15</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>28.927500000000002</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>3.5699999999999994</v>
       </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
       <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
         <v>16.43</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2000,29 +2118,32 @@
       <c r="F39">
         <v>8</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39">
+        <v>288.75</v>
+      </c>
+      <c r="H39" s="1">
         <v>153.91</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>13.572499999999998</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>1.4299999999999997</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>51.787499999999994</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>1.0724999999999998</v>
       </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
       <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
         <v>20.714999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -2041,29 +2162,32 @@
       <c r="F40">
         <v>3</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40">
+        <v>157.86000000000001</v>
+      </c>
+      <c r="H40" s="1">
         <v>95.69</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>48.215000000000003</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>23.214999999999996</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>26.070000000000004</v>
       </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
       <c r="L40" s="1">
         <v>0</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2082,29 +2206,32 @@
       <c r="F41">
         <v>8</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41">
+        <v>304.82</v>
+      </c>
+      <c r="H41" s="1">
         <v>196.77999999999997</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>45.357500000000002</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>18.215</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>32.5</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>0.35749999999999998</v>
       </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
       <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
         <v>1.7849999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2123,29 +2250,32 @@
       <c r="F42">
         <v>11</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42">
+        <v>458.33</v>
+      </c>
+      <c r="H42" s="1">
         <v>324.25</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>21.072500000000002</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>14.2875</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <v>37.5</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>5.3574999999999999</v>
       </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
       <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
         <v>11.425000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -2164,29 +2294,32 @@
       <c r="F43">
         <v>3</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43">
+        <v>131.27000000000001</v>
+      </c>
+      <c r="H43" s="1">
         <v>225.16999999999996</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>58.57500000000001</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>34.997500000000009</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>4.642500000000001</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>1.0699999999999998</v>
       </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
       <c r="M43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -2205,29 +2338,32 @@
       <c r="F44">
         <v>10.5</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44">
+        <v>334.97</v>
+      </c>
+      <c r="H44" s="1">
         <v>206.22</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>64.999999999999986</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>2.8574999999999995</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>24.285</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>0.35749999999999993</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <v>3.9299999999999993</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44" s="1">
         <v>1.0699999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2246,29 +2382,32 @@
       <c r="F45">
         <v>2.5</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
+        <v>177.83</v>
+      </c>
+      <c r="H45" s="1">
         <v>82.050000000000011</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>76.666666666666671</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>6.6666666666666679</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>8.5733333333333341</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>4.2833333333333341</v>
       </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
       <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
         <v>3.8100000000000009</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2287,29 +2426,32 @@
       <c r="F46">
         <v>6</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
+        <v>314.33999999999997</v>
+      </c>
+      <c r="H46" s="1">
         <v>166.94</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>42.144999999999982</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>20.714999999999996</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <v>20.357499999999991</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>12.499999999999996</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <v>2.8549999999999991</v>
       </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2328,29 +2470,32 @@
       <c r="F47">
         <v>9.9</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
+        <v>225.21</v>
+      </c>
+      <c r="H47" s="1">
         <v>178.46999999999997</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>41.784999999999997</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>10.715</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <v>46.427500000000002</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
       <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
         <v>0.35749999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2369,29 +2514,32 @@
       <c r="F48">
         <v>13</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
+        <v>342.24</v>
+      </c>
+      <c r="H48" s="1">
         <v>242.6</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>49.287500000000001</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <v>4.6425000000000001</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <v>17.5</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <v>8.2149999999999999</v>
       </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
       <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2410,29 +2558,32 @@
       <c r="F49">
         <v>10</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49">
+        <v>387.42</v>
+      </c>
+      <c r="H49" s="1">
         <v>259.37</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>68.569999999999993</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>1.4299999999999997</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <v>10.357499999999998</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>18.569999999999997</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <v>0.35749999999999993</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <v>0.71499999999999986</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -2451,29 +2602,32 @@
       <c r="F50">
         <v>1.5</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50">
+        <v>128.81</v>
+      </c>
+      <c r="H50" s="1">
         <v>60.78</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>24.644999999999996</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <v>23.572499999999998</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <v>26.072499999999998</v>
       </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
       <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
         <v>17.855</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N50" s="1">
         <v>7.8550000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -2492,29 +2646,32 @@
       <c r="F51">
         <v>8</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51">
+        <v>222.59</v>
+      </c>
+      <c r="H51" s="1">
         <v>234.70999999999998</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>54.284999999999997</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>1.0724999999999998</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <v>8.572499999999998</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>16.784999999999997</v>
       </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
       <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
         <v>18.927499999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2533,29 +2690,32 @@
       <c r="F52">
         <v>2.5</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52">
+        <v>124.7</v>
+      </c>
+      <c r="H52" s="1">
         <v>87.06</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>19.645</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <v>38.927499999999995</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <v>26.072499999999994</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>14.9975</v>
       </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
       <c r="M52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2574,29 +2734,32 @@
       <c r="F53">
         <v>7</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53">
+        <v>259.69</v>
+      </c>
+      <c r="H53" s="1">
         <v>194.69</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>9.6449999999999996</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>2.8574999999999999</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <v>30.000000000000004</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>40.357500000000002</v>
       </c>
-      <c r="L53" s="1">
-        <v>0</v>
-      </c>
       <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
         <v>17.14</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -2615,29 +2778,32 @@
       <c r="F54">
         <v>5</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54">
+        <v>143.59</v>
+      </c>
+      <c r="H54" s="1">
         <v>169.26999999999998</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>32.502500000000005</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <v>20.712499999999999</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="1">
         <v>9.9974999999999987</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="1">
         <v>21.072500000000002</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <v>15</v>
       </c>
-      <c r="M54" s="1">
+      <c r="N54" s="1">
         <v>0.35749999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -2656,29 +2822,32 @@
       <c r="F55">
         <v>4</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
+        <v>169.09</v>
+      </c>
+      <c r="H55" s="1">
         <v>235.13</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>31.787500000000001</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <v>11.4275</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <v>54.642499999999991</v>
       </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
       <c r="L55" s="1">
         <v>0</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -2697,29 +2866,32 @@
       <c r="F56">
         <v>7.5</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
+        <v>270.61</v>
+      </c>
+      <c r="H56" s="1">
         <v>206.03</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>46.06750000000001</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>10.7125</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>12.500000000000004</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <v>18.22</v>
       </c>
-      <c r="L56" s="1">
-        <v>0</v>
-      </c>
       <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
         <v>8.2125000000000021</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2738,29 +2910,32 @@
       <c r="F57">
         <v>4.5</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
+        <v>138.32</v>
+      </c>
+      <c r="H57" s="1">
         <v>123.46000000000001</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>42.86</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>20</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>7.6166666666666671</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>23.810000000000002</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <v>1.9033333333333333</v>
       </c>
-      <c r="M57" s="1">
+      <c r="N57" s="1">
         <v>2.8566666666666669</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -2779,29 +2954,32 @@
       <c r="F58">
         <v>6.5</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58">
+        <v>280.17</v>
+      </c>
+      <c r="H58" s="1">
         <v>239.39</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>60.357499999999995</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <v>9.6424999999999983</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <v>9.2874999999999979</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L58" s="1">
         <v>17.5</v>
       </c>
-      <c r="L58" s="1">
+      <c r="M58" s="1">
         <v>0.35749999999999993</v>
       </c>
-      <c r="M58" s="1">
+      <c r="N58" s="1">
         <v>1.7849999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -2820,29 +2998,32 @@
       <c r="F59">
         <v>4.5</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59">
+        <v>183.5</v>
+      </c>
+      <c r="H59" s="1">
         <v>188.10999999999999</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>42.497499999999995</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <v>18.212500000000002</v>
       </c>
-      <c r="J59" s="1">
+      <c r="K59" s="1">
         <v>34.642499999999998</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>2.86</v>
       </c>
-      <c r="L59" s="1">
-        <v>0</v>
-      </c>
       <c r="M59" s="1">
+        <v>0</v>
+      </c>
+      <c r="N59" s="1">
         <v>1.0725</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -2861,29 +3042,32 @@
       <c r="F60">
         <v>5</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60">
+        <v>212.15</v>
+      </c>
+      <c r="H60" s="1">
         <v>225.36999999999998</v>
       </c>
-      <c r="H60" s="1">
+      <c r="I60" s="1">
         <v>21.427499999999995</v>
       </c>
-      <c r="I60" s="1">
+      <c r="J60" s="1">
         <v>26.784999999999993</v>
       </c>
-      <c r="J60" s="1">
+      <c r="K60" s="1">
         <v>10.714999999999998</v>
       </c>
-      <c r="K60" s="1">
+      <c r="L60" s="1">
         <v>26.784999999999997</v>
       </c>
-      <c r="L60" s="1">
+      <c r="M60" s="1">
         <v>3.5724999999999993</v>
       </c>
-      <c r="M60" s="1">
+      <c r="N60" s="1">
         <v>8.9249999999999989</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -2902,29 +3086,32 @@
       <c r="F61">
         <v>1.5</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61">
+        <v>88.71</v>
+      </c>
+      <c r="H61" s="1">
         <v>79.72</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <v>82.85499999999999</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <v>2.8574999999999995</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <v>4.2849999999999993</v>
       </c>
-      <c r="K61" s="1">
+      <c r="L61" s="1">
         <v>6.7874999999999988</v>
       </c>
-      <c r="L61" s="1">
-        <v>0</v>
-      </c>
       <c r="M61" s="1">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1">
         <v>1.0724999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2943,29 +3130,32 @@
       <c r="F62">
         <v>10</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62">
+        <v>317.83</v>
+      </c>
+      <c r="H62" s="1">
         <v>224.95</v>
       </c>
-      <c r="H62" s="1">
+      <c r="I62" s="1">
         <v>77.147500000000008</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J62" s="1">
         <v>11.782500000000001</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K62" s="1">
         <v>3.2149999999999999</v>
       </c>
-      <c r="K62" s="1">
+      <c r="L62" s="1">
         <v>1.7849999999999997</v>
       </c>
-      <c r="L62" s="1">
+      <c r="M62" s="1">
         <v>4.6425000000000001</v>
       </c>
-      <c r="M62" s="1">
+      <c r="N62" s="1">
         <v>1.4275</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2984,29 +3174,32 @@
       <c r="F63">
         <v>3.5</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63">
+        <v>111.26</v>
+      </c>
+      <c r="H63" s="1">
         <v>115.79</v>
       </c>
-      <c r="H63" s="1">
+      <c r="I63" s="1">
         <v>78.927499999999995</v>
       </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
       <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
         <v>18.215</v>
       </c>
-      <c r="K63" s="1">
-        <v>0</v>
-      </c>
       <c r="L63" s="1">
         <v>0</v>
       </c>
       <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
         <v>1.0725</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -3025,29 +3218,32 @@
       <c r="F64">
         <v>18</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64">
+        <v>544.45000000000005</v>
+      </c>
+      <c r="H64" s="1">
         <v>258.07000000000005</v>
       </c>
-      <c r="H64" s="1">
+      <c r="I64" s="1">
         <v>72.142499999999984</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="1">
         <v>1.7849999999999997</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <v>25.715</v>
       </c>
-      <c r="K64" s="1">
-        <v>0</v>
-      </c>
       <c r="L64" s="1">
         <v>0</v>
       </c>
       <c r="M64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -3066,29 +3262,32 @@
       <c r="F65">
         <v>2.5</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65">
+        <v>153.22999999999999</v>
+      </c>
+      <c r="H65" s="1">
         <v>120.22</v>
       </c>
-      <c r="H65" s="1">
+      <c r="I65" s="1">
         <v>65.715000000000003</v>
       </c>
-      <c r="I65" s="1">
+      <c r="J65" s="1">
         <v>6.7825000000000006</v>
       </c>
-      <c r="J65" s="1">
+      <c r="K65" s="1">
         <v>26.787499999999998</v>
       </c>
-      <c r="K65" s="1">
-        <v>0</v>
-      </c>
       <c r="L65" s="1">
         <v>0</v>
       </c>
       <c r="M65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -3107,29 +3306,32 @@
       <c r="F66">
         <v>6.5</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66">
+        <v>219.44</v>
+      </c>
+      <c r="H66" s="1">
         <v>184.13</v>
       </c>
-      <c r="H66" s="1">
+      <c r="I66" s="1">
         <v>33.333333333333329</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J66" s="1">
         <v>11.426666666666668</v>
       </c>
-      <c r="J66" s="1">
+      <c r="K66" s="1">
         <v>53.333333333333336</v>
       </c>
-      <c r="K66" s="1">
-        <v>0</v>
-      </c>
       <c r="L66" s="1">
         <v>0</v>
       </c>
       <c r="M66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -3148,29 +3350,32 @@
       <c r="F67">
         <v>12</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67">
+        <v>429.64</v>
+      </c>
+      <c r="H67" s="1">
         <v>209.89</v>
       </c>
-      <c r="H67" s="1">
+      <c r="I67" s="1">
         <v>58.927500000000002</v>
       </c>
-      <c r="I67" s="1">
-        <v>0</v>
-      </c>
       <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
         <v>20.715</v>
       </c>
-      <c r="K67" s="1">
+      <c r="L67" s="1">
         <v>12.855</v>
       </c>
-      <c r="L67" s="1">
-        <v>0</v>
-      </c>
       <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
         <v>6.43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -3189,29 +3394,32 @@
       <c r="F68">
         <v>10</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68">
+        <v>491.69</v>
+      </c>
+      <c r="H68" s="1">
         <v>353.66999999999996</v>
       </c>
-      <c r="H68" s="1">
+      <c r="I68" s="1">
         <v>52.502499999999998</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="1">
         <v>14.285</v>
       </c>
-      <c r="J68" s="1">
+      <c r="K68" s="1">
         <v>32.497500000000002</v>
       </c>
-      <c r="K68" s="1">
-        <v>0</v>
-      </c>
       <c r="L68" s="1">
         <v>0</v>
       </c>
       <c r="M68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -3230,29 +3438,32 @@
       <c r="F69">
         <v>17</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69">
+        <v>445.96</v>
+      </c>
+      <c r="H69" s="1">
         <v>342.5</v>
       </c>
-      <c r="H69" s="1">
+      <c r="I69" s="1">
         <v>83.927499999999981</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <v>4.2849999999999993</v>
       </c>
-      <c r="J69" s="1">
+      <c r="K69" s="1">
         <v>6.7874999999999988</v>
       </c>
-      <c r="K69" s="1">
+      <c r="L69" s="1">
         <v>3.9274999999999998</v>
       </c>
-      <c r="L69" s="1">
+      <c r="M69" s="1">
         <v>0.71499999999999986</v>
       </c>
-      <c r="M69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -3271,29 +3482,32 @@
       <c r="F70">
         <v>5</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70">
+        <v>211.67</v>
+      </c>
+      <c r="H70" s="1">
         <v>297.72000000000003</v>
       </c>
-      <c r="H70" s="1">
+      <c r="I70" s="1">
         <v>36.19</v>
       </c>
-      <c r="I70" s="1">
+      <c r="J70" s="1">
         <v>17.143333333333331</v>
       </c>
-      <c r="J70" s="1">
+      <c r="K70" s="1">
         <v>43.336666666666659</v>
       </c>
-      <c r="K70" s="1">
+      <c r="L70" s="1">
         <v>1.9033333333333333</v>
       </c>
-      <c r="L70" s="1">
-        <v>0</v>
-      </c>
       <c r="M70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -3312,29 +3526,32 @@
       <c r="F71">
         <v>8</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71">
+        <v>357.48</v>
+      </c>
+      <c r="H71" s="1">
         <v>125.28999999999999</v>
       </c>
-      <c r="H71" s="1">
+      <c r="I71" s="1">
         <v>69.523333333333341</v>
       </c>
-      <c r="I71" s="1">
+      <c r="J71" s="1">
         <v>10.953333333333333</v>
       </c>
-      <c r="J71" s="1">
+      <c r="K71" s="1">
         <v>19.523333333333333</v>
       </c>
-      <c r="K71" s="1">
-        <v>0</v>
-      </c>
       <c r="L71" s="1">
         <v>0</v>
       </c>
       <c r="M71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3353,29 +3570,32 @@
       <c r="F72">
         <v>5</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72">
+        <v>324.23</v>
+      </c>
+      <c r="H72" s="1">
         <v>203.19</v>
       </c>
-      <c r="H72" s="1">
+      <c r="I72" s="1">
         <v>59.642499999999991</v>
       </c>
-      <c r="I72" s="1">
+      <c r="J72" s="1">
         <v>25.357499999999998</v>
       </c>
-      <c r="J72" s="1">
+      <c r="K72" s="1">
         <v>7.5</v>
       </c>
-      <c r="K72" s="1">
+      <c r="L72" s="1">
         <v>3.9299999999999993</v>
       </c>
-      <c r="L72" s="1">
-        <v>0</v>
-      </c>
       <c r="M72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -3394,29 +3614,32 @@
       <c r="F73">
         <v>2.1</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73">
+        <v>74.72</v>
+      </c>
+      <c r="H73" s="1">
         <v>101.87</v>
       </c>
-      <c r="H73" s="1">
+      <c r="I73" s="1">
         <v>41.07</v>
       </c>
-      <c r="I73" s="1">
+      <c r="J73" s="1">
         <v>12.1425</v>
       </c>
-      <c r="J73" s="1">
+      <c r="K73" s="1">
         <v>45.357500000000002</v>
       </c>
-      <c r="K73" s="1">
-        <v>0</v>
-      </c>
       <c r="L73" s="1">
         <v>0</v>
       </c>
       <c r="M73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -3435,29 +3658,32 @@
       <c r="F74">
         <v>4.5</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74">
+        <v>301.75</v>
+      </c>
+      <c r="H74" s="1">
         <v>170.26</v>
       </c>
-      <c r="H74" s="1">
+      <c r="I74" s="1">
         <v>86.784999999999968</v>
       </c>
-      <c r="I74" s="1">
+      <c r="J74" s="1">
         <v>7.4999999999999982</v>
       </c>
-      <c r="J74" s="1">
+      <c r="K74" s="1">
         <v>3.214999999999999</v>
       </c>
-      <c r="K74" s="1">
+      <c r="L74" s="1">
         <v>1.4299999999999995</v>
       </c>
-      <c r="L74" s="1">
-        <v>0</v>
-      </c>
       <c r="M74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -3476,29 +3702,32 @@
       <c r="F75">
         <v>3</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75">
+        <v>151.81</v>
+      </c>
+      <c r="H75" s="1">
         <v>175.85</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <v>68.214999999999989</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J75" s="1">
         <v>17.5</v>
       </c>
-      <c r="J75" s="1">
+      <c r="K75" s="1">
         <v>10.36</v>
       </c>
-      <c r="K75" s="1">
+      <c r="L75" s="1">
         <v>3.9249999999999998</v>
       </c>
-      <c r="L75" s="1">
-        <v>0</v>
-      </c>
       <c r="M75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -3517,29 +3746,32 @@
       <c r="F76">
         <v>6</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76">
+        <v>232.58</v>
+      </c>
+      <c r="H76" s="1">
         <v>184.93</v>
       </c>
-      <c r="H76" s="1">
+      <c r="I76" s="1">
         <v>64.644999999999982</v>
       </c>
-      <c r="I76" s="1">
+      <c r="J76" s="1">
         <v>11.069999999999997</v>
       </c>
-      <c r="J76" s="1">
+      <c r="K76" s="1">
         <v>16.429999999999996</v>
       </c>
-      <c r="K76" s="1">
+      <c r="L76" s="1">
         <v>4.6424999999999983</v>
       </c>
-      <c r="L76" s="1">
-        <v>0</v>
-      </c>
       <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
         <v>2.4974999999999992</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -3558,29 +3790,32 @@
       <c r="F77">
         <v>5.2</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77">
+        <v>207.42</v>
+      </c>
+      <c r="H77" s="1">
         <v>217.89</v>
       </c>
-      <c r="H77" s="1">
+      <c r="I77" s="1">
         <v>29.644999999999996</v>
       </c>
-      <c r="I77" s="1">
+      <c r="J77" s="1">
         <v>20.712499999999999</v>
       </c>
-      <c r="J77" s="1">
+      <c r="K77" s="1">
         <v>42.854999999999997</v>
       </c>
-      <c r="K77" s="1">
-        <v>0</v>
-      </c>
       <c r="L77" s="1">
         <v>0</v>
       </c>
       <c r="M77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -3599,29 +3834,32 @@
       <c r="F78">
         <v>12</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78">
+        <v>347.95</v>
+      </c>
+      <c r="H78" s="1">
         <v>183.45</v>
       </c>
-      <c r="H78" s="1">
+      <c r="I78" s="1">
         <v>84.284999999999997</v>
       </c>
-      <c r="I78" s="1">
-        <v>0</v>
-      </c>
       <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
         <v>8.2149999999999999</v>
       </c>
-      <c r="K78" s="1">
+      <c r="L78" s="1">
         <v>1.4275</v>
       </c>
-      <c r="L78" s="1">
-        <v>0</v>
-      </c>
       <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -3640,29 +3878,32 @@
       <c r="F79">
         <v>3</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79">
+        <v>181.15</v>
+      </c>
+      <c r="H79" s="1">
         <v>157.42000000000002</v>
       </c>
-      <c r="H79" s="1">
+      <c r="I79" s="1">
         <v>42.859999999999992</v>
       </c>
-      <c r="I79" s="1">
+      <c r="J79" s="1">
         <v>23.214999999999996</v>
       </c>
-      <c r="J79" s="1">
+      <c r="K79" s="1">
         <v>29.997499999999999</v>
       </c>
-      <c r="K79" s="1">
+      <c r="L79" s="1">
         <v>2.5</v>
       </c>
-      <c r="L79" s="1">
-        <v>0</v>
-      </c>
       <c r="M79" s="1">
+        <v>0</v>
+      </c>
+      <c r="N79" s="1">
         <v>0.71249999999999991</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -3681,29 +3922,32 @@
       <c r="F80">
         <v>3</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80">
+        <v>320.95999999999998</v>
+      </c>
+      <c r="H80" s="1">
         <v>159.84</v>
       </c>
-      <c r="H80" s="1">
+      <c r="I80" s="1">
         <v>64.284999999999997</v>
       </c>
-      <c r="I80" s="1">
+      <c r="J80" s="1">
         <v>17.142499999999998</v>
       </c>
-      <c r="J80" s="1">
+      <c r="K80" s="1">
         <v>18.572499999999994</v>
       </c>
-      <c r="K80" s="1">
-        <v>0</v>
-      </c>
       <c r="L80" s="1">
         <v>0</v>
       </c>
       <c r="M80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -3722,29 +3966,32 @@
       <c r="F81">
         <v>3.5</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81">
+        <v>237.87</v>
+      </c>
+      <c r="H81" s="1">
         <v>133.81</v>
       </c>
-      <c r="H81" s="1">
+      <c r="I81" s="1">
         <v>43.925000000000004</v>
       </c>
-      <c r="I81" s="1">
+      <c r="J81" s="1">
         <v>7.1449999999999996</v>
       </c>
-      <c r="J81" s="1">
+      <c r="K81" s="1">
         <v>48.572500000000005</v>
       </c>
-      <c r="K81" s="1">
+      <c r="L81" s="1">
         <v>0.35749999999999998</v>
       </c>
-      <c r="L81" s="1">
-        <v>0</v>
-      </c>
       <c r="M81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -3763,29 +4010,32 @@
       <c r="F82">
         <v>16</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82">
+        <v>734.49</v>
+      </c>
+      <c r="H82" s="1">
         <v>324.52000000000004</v>
       </c>
-      <c r="H82" s="1">
+      <c r="I82" s="1">
         <v>80</v>
       </c>
-      <c r="I82" s="1">
+      <c r="J82" s="1">
         <v>3.5700000000000003</v>
       </c>
-      <c r="J82" s="1">
+      <c r="K82" s="1">
         <v>14.6425</v>
       </c>
-      <c r="K82" s="1">
-        <v>0</v>
-      </c>
       <c r="L82" s="1">
         <v>0</v>
       </c>
       <c r="M82" s="1">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1">
         <v>1.7875000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -3804,29 +4054,32 @@
       <c r="F83">
         <v>3</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83">
+        <v>206.83</v>
+      </c>
+      <c r="H83" s="1">
         <v>78.94</v>
       </c>
-      <c r="H83" s="1">
+      <c r="I83" s="1">
         <v>60.357500000000009</v>
       </c>
-      <c r="I83" s="1">
+      <c r="J83" s="1">
         <v>9.6449999999999996</v>
       </c>
-      <c r="J83" s="1">
+      <c r="K83" s="1">
         <v>29.997500000000006</v>
       </c>
-      <c r="K83" s="1">
-        <v>0</v>
-      </c>
       <c r="L83" s="1">
         <v>0</v>
       </c>
       <c r="M83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -3845,29 +4098,32 @@
       <c r="F84">
         <v>5</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84">
+        <v>176.08</v>
+      </c>
+      <c r="H84" s="1">
         <v>165.44</v>
       </c>
-      <c r="H84" s="1">
+      <c r="I84" s="1">
         <v>19.644999999999996</v>
       </c>
-      <c r="I84" s="1">
+      <c r="J84" s="1">
         <v>53.927499999999995</v>
       </c>
-      <c r="J84" s="1">
+      <c r="K84" s="1">
         <v>25.712499999999999</v>
       </c>
-      <c r="K84" s="1">
+      <c r="L84" s="1">
         <v>0.71499999999999986</v>
       </c>
-      <c r="L84" s="1">
-        <v>0</v>
-      </c>
       <c r="M84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -3886,20 +4142,20 @@
       <c r="F85">
         <v>6</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85">
+        <v>183.63</v>
+      </c>
+      <c r="H85" s="1">
         <v>140.51999999999998</v>
       </c>
-      <c r="H85" s="1">
+      <c r="I85" s="1">
         <v>20.715</v>
-      </c>
-      <c r="I85" s="1">
-        <v>39.642499999999998</v>
       </c>
       <c r="J85" s="1">
         <v>39.642499999999998</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>39.642499999999998</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -3907,8 +4163,11 @@
       <c r="M85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -3927,29 +4186,32 @@
       <c r="F86">
         <v>13</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86">
+        <v>632.97</v>
+      </c>
+      <c r="H86" s="1">
         <v>482.26</v>
       </c>
-      <c r="H86" s="1">
+      <c r="I86" s="1">
         <v>63.927500000000002</v>
       </c>
-      <c r="I86" s="1">
+      <c r="J86" s="1">
         <v>13.570000000000002</v>
       </c>
-      <c r="J86" s="1">
+      <c r="K86" s="1">
         <v>2.8600000000000003</v>
       </c>
-      <c r="K86" s="1">
+      <c r="L86" s="1">
         <v>6.4249999999999998</v>
       </c>
-      <c r="L86" s="1">
+      <c r="M86" s="1">
         <v>10.360000000000003</v>
       </c>
-      <c r="M86" s="1">
+      <c r="N86" s="1">
         <v>2.1425000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -3968,29 +4230,32 @@
       <c r="F87">
         <v>5.5</v>
       </c>
-      <c r="G87" s="1">
+      <c r="G87">
+        <v>263.99</v>
+      </c>
+      <c r="H87" s="1">
         <v>262.95</v>
       </c>
-      <c r="H87" s="1">
+      <c r="I87" s="1">
         <v>79.642500000000013</v>
       </c>
-      <c r="I87" s="1">
+      <c r="J87" s="1">
         <v>3.2150000000000003</v>
       </c>
-      <c r="J87" s="1">
+      <c r="K87" s="1">
         <v>14.285000000000004</v>
       </c>
-      <c r="K87" s="1">
+      <c r="L87" s="1">
         <v>1.4300000000000002</v>
       </c>
-      <c r="L87" s="1">
-        <v>0</v>
-      </c>
       <c r="M87" s="1">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1">
         <v>1.4275000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -4009,29 +4274,32 @@
       <c r="F88">
         <v>2</v>
       </c>
-      <c r="G88" s="1">
+      <c r="G88">
+        <v>116.78</v>
+      </c>
+      <c r="H88" s="1">
         <v>108.72</v>
       </c>
-      <c r="H88" s="1">
+      <c r="I88" s="1">
         <v>69.52</v>
       </c>
-      <c r="I88" s="1">
+      <c r="J88" s="1">
         <v>15.24</v>
       </c>
-      <c r="J88" s="1">
+      <c r="K88" s="1">
         <v>12.856666666666666</v>
       </c>
-      <c r="K88" s="1">
+      <c r="L88" s="1">
         <v>0.95333333333333325</v>
       </c>
-      <c r="L88" s="1">
-        <v>0</v>
-      </c>
       <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1">
         <v>1.43</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -4050,29 +4318,32 @@
       <c r="F89">
         <v>2.5</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89">
+        <v>201.58</v>
+      </c>
+      <c r="H89" s="1">
         <v>123.27000000000001</v>
       </c>
-      <c r="H89" s="1">
+      <c r="I89" s="1">
         <v>86.07</v>
       </c>
-      <c r="I89" s="1">
+      <c r="J89" s="1">
         <v>5.7149999999999999</v>
       </c>
-      <c r="J89" s="1">
+      <c r="K89" s="1">
         <v>7.8575000000000008</v>
       </c>
-      <c r="K89" s="1">
-        <v>0</v>
-      </c>
       <c r="L89" s="1">
         <v>0</v>
       </c>
       <c r="M89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -4091,29 +4362,32 @@
       <c r="F90">
         <v>2</v>
       </c>
-      <c r="G90" s="1">
+      <c r="G90">
+        <v>131.80000000000001</v>
+      </c>
+      <c r="H90" s="1">
         <v>72.08</v>
       </c>
-      <c r="H90" s="1">
+      <c r="I90" s="1">
         <v>72.853333333333325</v>
       </c>
-      <c r="I90" s="1">
+      <c r="J90" s="1">
         <v>4.2866666666666662</v>
       </c>
-      <c r="J90" s="1">
+      <c r="K90" s="1">
         <v>5.7166666666666668</v>
       </c>
-      <c r="K90" s="1">
+      <c r="L90" s="1">
         <v>0.47666666666666663</v>
       </c>
-      <c r="L90" s="1">
+      <c r="M90" s="1">
         <v>10.953333333333333</v>
       </c>
-      <c r="M90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -4132,29 +4406,32 @@
       <c r="F91">
         <v>11</v>
       </c>
-      <c r="G91" s="1">
+      <c r="G91">
+        <v>643.89</v>
+      </c>
+      <c r="H91" s="1">
         <v>254.56</v>
       </c>
-      <c r="H91" s="1">
+      <c r="I91" s="1">
         <v>69.283267918302045</v>
       </c>
-      <c r="I91" s="1">
+      <c r="J91" s="1">
         <v>13.929651758706033</v>
       </c>
-      <c r="J91" s="1">
+      <c r="K91" s="1">
         <v>5.7148571285717855</v>
       </c>
-      <c r="K91" s="1">
+      <c r="L91" s="1">
         <v>8.9297767555811109</v>
       </c>
-      <c r="L91" s="1">
-        <v>0</v>
-      </c>
       <c r="M91" s="1">
+        <v>0</v>
+      </c>
+      <c r="N91" s="1">
         <v>2.1424464388390292</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -4173,29 +4450,32 @@
       <c r="F92">
         <v>7.5</v>
       </c>
-      <c r="G92" s="1">
+      <c r="G92">
+        <v>279.55</v>
+      </c>
+      <c r="H92" s="1">
         <v>106.9</v>
       </c>
-      <c r="H92" s="1">
+      <c r="I92" s="1">
         <v>52.379999999999995</v>
       </c>
-      <c r="I92" s="1">
+      <c r="J92" s="1">
         <v>18.093333333333334</v>
       </c>
-      <c r="J92" s="1">
+      <c r="K92" s="1">
         <v>11.43</v>
       </c>
-      <c r="K92" s="1">
+      <c r="L92" s="1">
         <v>3.3333333333333335</v>
       </c>
-      <c r="L92" s="1">
-        <v>0</v>
-      </c>
       <c r="M92" s="1">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1">
         <v>2.8566666666666669</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -4214,29 +4494,32 @@
       <c r="F93">
         <v>4.5</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G93">
+        <v>390.72</v>
+      </c>
+      <c r="H93" s="1">
         <v>465.96000000000004</v>
       </c>
-      <c r="H93" s="1">
+      <c r="I93" s="1">
         <v>47.857499999999995</v>
       </c>
-      <c r="I93" s="1">
+      <c r="J93" s="1">
         <v>21.430000000000003</v>
       </c>
-      <c r="J93" s="1">
+      <c r="K93" s="1">
         <v>6.0725000000000007</v>
       </c>
-      <c r="K93" s="1">
+      <c r="L93" s="1">
         <v>17.142499999999998</v>
       </c>
-      <c r="L93" s="1">
-        <v>0</v>
-      </c>
       <c r="M93" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -4255,29 +4538,32 @@
       <c r="F94">
         <v>12.5</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94">
+        <v>345.64</v>
+      </c>
+      <c r="H94" s="1">
         <v>242.05</v>
       </c>
-      <c r="H94" s="1">
+      <c r="I94" s="1">
         <v>46.43</v>
       </c>
-      <c r="I94" s="1">
+      <c r="J94" s="1">
         <v>27.500000000000004</v>
       </c>
-      <c r="J94" s="1">
+      <c r="K94" s="1">
         <v>17.14</v>
       </c>
-      <c r="K94" s="1">
+      <c r="L94" s="1">
         <v>8.93</v>
       </c>
-      <c r="L94" s="1">
-        <v>0</v>
-      </c>
       <c r="M94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -4296,29 +4582,32 @@
       <c r="F95">
         <v>4.2</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G95">
+        <v>290.98</v>
+      </c>
+      <c r="H95" s="1">
         <v>548.93999999999994</v>
       </c>
-      <c r="H95" s="1">
+      <c r="I95" s="1">
         <v>33.57</v>
       </c>
-      <c r="I95" s="1">
+      <c r="J95" s="1">
         <v>32.144999999999996</v>
       </c>
-      <c r="J95" s="1">
+      <c r="K95" s="1">
         <v>23.930000000000003</v>
       </c>
-      <c r="K95" s="1">
+      <c r="L95" s="1">
         <v>7.4974999999999996</v>
       </c>
-      <c r="L95" s="1">
-        <v>0</v>
-      </c>
       <c r="M95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -4337,29 +4626,32 @@
       <c r="F96">
         <v>3</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96">
+        <v>133.79</v>
+      </c>
+      <c r="H96" s="1">
         <v>156.63</v>
       </c>
-      <c r="H96" s="1">
+      <c r="I96" s="1">
         <v>45.713333333333317</v>
       </c>
-      <c r="I96" s="1">
+      <c r="J96" s="1">
         <v>24.763333333333325</v>
       </c>
-      <c r="J96" s="1">
+      <c r="K96" s="1">
         <v>21.906666666666663</v>
       </c>
-      <c r="K96" s="1">
+      <c r="L96" s="1">
         <v>4.2866666666666653</v>
       </c>
-      <c r="L96" s="1">
+      <c r="M96" s="1">
         <v>1.9033333333333329</v>
       </c>
-      <c r="M96" s="1">
+      <c r="N96" s="1">
         <v>0.47666666666666657</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -4378,29 +4670,32 @@
       <c r="F97">
         <v>11.5</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97">
+        <v>272.83</v>
+      </c>
+      <c r="H97" s="1">
         <v>241.41</v>
       </c>
-      <c r="H97" s="1">
+      <c r="I97" s="1">
         <v>69.284999999999997</v>
       </c>
-      <c r="I97" s="1">
+      <c r="J97" s="1">
         <v>5.3575000000000008</v>
       </c>
-      <c r="J97" s="1">
+      <c r="K97" s="1">
         <v>16.072500000000002</v>
       </c>
-      <c r="K97" s="1">
+      <c r="L97" s="1">
         <v>7.4975000000000014</v>
       </c>
-      <c r="L97" s="1">
-        <v>0</v>
-      </c>
       <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
         <v>1.4300000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -4419,29 +4714,32 @@
       <c r="F98">
         <v>5.3</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98">
+        <v>266.63</v>
+      </c>
+      <c r="H98" s="1">
         <v>162.63999999999999</v>
       </c>
-      <c r="H98" s="1">
+      <c r="I98" s="1">
         <v>44.763333333333335</v>
       </c>
-      <c r="I98" s="1">
+      <c r="J98" s="1">
         <v>30.47666666666667</v>
       </c>
-      <c r="J98" s="1">
+      <c r="K98" s="1">
         <v>9.043333333333333</v>
       </c>
-      <c r="K98" s="1">
+      <c r="L98" s="1">
         <v>4.2866666666666662</v>
       </c>
-      <c r="L98" s="1">
-        <v>0</v>
-      </c>
       <c r="M98" s="1">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
         <v>9.5266666666666673</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -4460,29 +4758,32 @@
       <c r="F99">
         <v>19.5</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99">
+        <v>82.05</v>
+      </c>
+      <c r="H99" s="1">
         <v>100.14000000000001</v>
       </c>
-      <c r="H99" s="1">
+      <c r="I99" s="1">
         <v>37.140000000000008</v>
       </c>
-      <c r="I99" s="1">
+      <c r="J99" s="1">
         <v>25.236666666666668</v>
       </c>
-      <c r="J99" s="1">
+      <c r="K99" s="1">
         <v>24.286666666666669</v>
       </c>
-      <c r="K99" s="1">
-        <v>0</v>
-      </c>
       <c r="L99" s="1">
         <v>0</v>
       </c>
       <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -4501,29 +4802,32 @@
       <c r="F100">
         <v>3</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G100">
+        <v>290.61</v>
+      </c>
+      <c r="H100" s="1">
         <v>284.27999999999997</v>
       </c>
-      <c r="H100" s="1">
+      <c r="I100" s="1">
         <v>68.214999999999989</v>
       </c>
-      <c r="I100" s="1">
+      <c r="J100" s="1">
         <v>8.2149999999999981</v>
       </c>
-      <c r="J100" s="1">
+      <c r="K100" s="1">
         <v>9.9974999999999987</v>
       </c>
-      <c r="K100" s="1">
+      <c r="L100" s="1">
         <v>11.427499999999998</v>
       </c>
-      <c r="L100" s="1">
+      <c r="M100" s="1">
         <v>1.0724999999999998</v>
       </c>
-      <c r="M100" s="1">
+      <c r="N100" s="1">
         <v>0.35749999999999993</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -4542,29 +4846,32 @@
       <c r="F101">
         <v>5.5</v>
       </c>
-      <c r="G101" s="1">
+      <c r="G101">
+        <v>139.91</v>
+      </c>
+      <c r="H101" s="1">
         <v>228.14000000000001</v>
       </c>
-      <c r="H101" s="1">
+      <c r="I101" s="1">
         <v>21.072500000000002</v>
       </c>
-      <c r="I101" s="1">
+      <c r="J101" s="1">
         <v>35.712500000000006</v>
       </c>
-      <c r="J101" s="1">
+      <c r="K101" s="1">
         <v>26.07</v>
       </c>
-      <c r="K101" s="1">
+      <c r="L101" s="1">
         <v>0.35749999999999998</v>
       </c>
-      <c r="L101" s="1">
+      <c r="M101" s="1">
         <v>4.6425000000000001</v>
       </c>
-      <c r="M101" s="1">
+      <c r="N101" s="1">
         <v>7.4974999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -4583,29 +4890,32 @@
       <c r="F102">
         <v>3</v>
       </c>
-      <c r="G102" s="1">
+      <c r="G102">
+        <v>277.55</v>
+      </c>
+      <c r="H102" s="1">
         <v>259.82</v>
       </c>
-      <c r="H102" s="1">
+      <c r="I102" s="1">
         <v>32.857500000000002</v>
       </c>
-      <c r="I102" s="1">
+      <c r="J102" s="1">
         <v>21.072499999999998</v>
       </c>
-      <c r="J102" s="1">
+      <c r="K102" s="1">
         <v>32.14</v>
       </c>
-      <c r="K102" s="1">
+      <c r="L102" s="1">
         <v>0.35749999999999998</v>
       </c>
-      <c r="L102" s="1">
+      <c r="M102" s="1">
         <v>8.9275000000000002</v>
       </c>
-      <c r="M102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -4624,29 +4934,32 @@
       <c r="F103">
         <v>4.5</v>
       </c>
-      <c r="G103" s="1">
+      <c r="G103">
+        <v>226.03</v>
+      </c>
+      <c r="H103" s="1">
         <v>180.86</v>
       </c>
-      <c r="H103" s="1">
+      <c r="I103" s="1">
         <v>64.287500000000023</v>
       </c>
-      <c r="I103" s="1">
+      <c r="J103" s="1">
         <v>11.070000000000002</v>
       </c>
-      <c r="J103" s="1">
+      <c r="K103" s="1">
         <v>21.427500000000006</v>
       </c>
-      <c r="K103" s="1">
+      <c r="L103" s="1">
         <v>1.0725000000000002</v>
       </c>
-      <c r="L103" s="1">
-        <v>0</v>
-      </c>
       <c r="M103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -4665,29 +4978,32 @@
       <c r="F104">
         <v>8</v>
       </c>
-      <c r="G104" s="1">
+      <c r="G104">
+        <v>106.8</v>
+      </c>
+      <c r="H104" s="1">
         <v>174.8</v>
       </c>
-      <c r="H104" s="1">
+      <c r="I104" s="1">
         <v>65.712500000000006</v>
       </c>
-      <c r="I104" s="1">
+      <c r="J104" s="1">
         <v>4.6425000000000001</v>
       </c>
-      <c r="J104" s="1">
+      <c r="K104" s="1">
         <v>12.5</v>
       </c>
-      <c r="K104" s="1">
+      <c r="L104" s="1">
         <v>0.35749999999999998</v>
       </c>
-      <c r="L104" s="1">
-        <v>0</v>
-      </c>
       <c r="M104" s="1">
+        <v>0</v>
+      </c>
+      <c r="N104" s="1">
         <v>0.35749999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -4706,29 +5022,32 @@
       <c r="F105">
         <v>3.8</v>
       </c>
-      <c r="G105" s="1">
+      <c r="G105">
+        <v>300.5</v>
+      </c>
+      <c r="H105" s="1">
         <v>274.83</v>
       </c>
-      <c r="H105" s="1">
+      <c r="I105" s="1">
         <v>56.190000000000012</v>
       </c>
-      <c r="I105" s="1">
+      <c r="J105" s="1">
         <v>10.953333333333335</v>
       </c>
-      <c r="J105" s="1">
+      <c r="K105" s="1">
         <v>21.90666666666667</v>
       </c>
-      <c r="K105" s="1">
+      <c r="L105" s="1">
         <v>2.8566666666666674</v>
       </c>
-      <c r="L105" s="1">
-        <v>0</v>
-      </c>
       <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1">
         <v>0.95333333333333348</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -4747,29 +5066,32 @@
       <c r="F106">
         <v>5.5</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106">
+        <v>156.85</v>
+      </c>
+      <c r="H106" s="1">
         <v>101.91</v>
       </c>
-      <c r="H106" s="1">
+      <c r="I106" s="1">
         <v>70.953333333333319</v>
       </c>
-      <c r="I106" s="1">
+      <c r="J106" s="1">
         <v>6.1933333333333316</v>
       </c>
-      <c r="J106" s="1">
+      <c r="K106" s="1">
         <v>16.666666666666664</v>
       </c>
-      <c r="K106" s="1">
+      <c r="L106" s="1">
         <v>2.8566666666666665</v>
       </c>
-      <c r="L106" s="1">
-        <v>0</v>
-      </c>
       <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
         <v>0.47666666666666657</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -4788,29 +5110,32 @@
       <c r="F107">
         <v>8</v>
       </c>
-      <c r="G107" s="1">
+      <c r="G107">
+        <v>215.17</v>
+      </c>
+      <c r="H107" s="1">
         <v>147.04000000000002</v>
       </c>
-      <c r="H107" s="1">
+      <c r="I107" s="1">
         <v>70.002499999999998</v>
       </c>
-      <c r="I107" s="1">
+      <c r="J107" s="1">
         <v>6.07</v>
       </c>
-      <c r="J107" s="1">
+      <c r="K107" s="1">
         <v>21.427500000000002</v>
       </c>
-      <c r="K107" s="1">
+      <c r="L107" s="1">
         <v>1.4275</v>
       </c>
-      <c r="L107" s="1">
-        <v>0</v>
-      </c>
       <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
         <v>1.0725</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -4829,29 +5154,32 @@
       <c r="F108">
         <v>17</v>
       </c>
-      <c r="G108" s="1">
+      <c r="G108">
+        <v>192.57</v>
+      </c>
+      <c r="H108" s="1">
         <v>175.2</v>
       </c>
-      <c r="H108" s="1">
+      <c r="I108" s="1">
         <v>44.642499999999998</v>
       </c>
-      <c r="I108" s="1">
+      <c r="J108" s="1">
         <v>8.93</v>
       </c>
-      <c r="J108" s="1">
+      <c r="K108" s="1">
         <v>28.212499999999995</v>
       </c>
-      <c r="K108" s="1">
+      <c r="L108" s="1">
         <v>12.5</v>
       </c>
-      <c r="L108" s="1">
+      <c r="M108" s="1">
         <v>1.0725</v>
       </c>
-      <c r="M108" s="1">
+      <c r="N108" s="1">
         <v>4.6425000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -4870,29 +5198,32 @@
       <c r="F109">
         <v>11</v>
       </c>
-      <c r="G109" s="1">
+      <c r="G109">
+        <v>369.12</v>
+      </c>
+      <c r="H109" s="1">
         <v>490.89</v>
       </c>
-      <c r="H109" s="1">
+      <c r="I109" s="1">
         <v>37.86</v>
       </c>
-      <c r="I109" s="1">
+      <c r="J109" s="1">
         <v>19.64</v>
       </c>
-      <c r="J109" s="1">
+      <c r="K109" s="1">
         <v>19.642499999999998</v>
       </c>
-      <c r="K109" s="1">
+      <c r="L109" s="1">
         <v>6.7874999999999988</v>
       </c>
-      <c r="L109" s="1">
-        <v>0</v>
-      </c>
       <c r="M109" s="1">
+        <v>0</v>
+      </c>
+      <c r="N109" s="1">
         <v>16.07</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -4911,29 +5242,32 @@
       <c r="F110">
         <v>11</v>
       </c>
-      <c r="G110" s="1">
+      <c r="G110">
+        <v>162.66999999999999</v>
+      </c>
+      <c r="H110" s="1">
         <v>242.35000000000002</v>
       </c>
-      <c r="H110" s="1">
+      <c r="I110" s="1">
         <v>42.142499999999991</v>
       </c>
-      <c r="I110" s="1">
+      <c r="J110" s="1">
         <v>12.502499999999998</v>
       </c>
-      <c r="J110" s="1">
+      <c r="K110" s="1">
         <v>10</v>
       </c>
-      <c r="K110" s="1">
+      <c r="L110" s="1">
         <v>24.285</v>
       </c>
-      <c r="L110" s="1">
-        <v>0</v>
-      </c>
       <c r="M110" s="1">
+        <v>0</v>
+      </c>
+      <c r="N110" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -4952,29 +5286,32 @@
       <c r="F111">
         <v>5</v>
       </c>
-      <c r="G111" s="1">
+      <c r="G111">
+        <v>130.74</v>
+      </c>
+      <c r="H111" s="1">
         <v>103.45</v>
       </c>
-      <c r="H111" s="1">
+      <c r="I111" s="1">
         <v>61.426666666666662</v>
       </c>
-      <c r="I111" s="1">
+      <c r="J111" s="1">
         <v>10.476666666666667</v>
       </c>
-      <c r="J111" s="1">
+      <c r="K111" s="1">
         <v>24.763333333333332</v>
       </c>
-      <c r="K111" s="1">
+      <c r="L111" s="1">
         <v>1.43</v>
       </c>
-      <c r="L111" s="1">
-        <v>0</v>
-      </c>
       <c r="M111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -4993,29 +5330,32 @@
       <c r="F112">
         <v>7.5</v>
       </c>
-      <c r="G112" s="1">
+      <c r="G112">
+        <v>322</v>
+      </c>
+      <c r="H112" s="1">
         <v>211.55</v>
       </c>
-      <c r="H112" s="1">
+      <c r="I112" s="1">
         <v>44.642499999999984</v>
       </c>
-      <c r="I112" s="1">
+      <c r="J112" s="1">
         <v>18.214999999999996</v>
       </c>
-      <c r="J112" s="1">
+      <c r="K112" s="1">
         <v>31.784999999999986</v>
       </c>
-      <c r="K112" s="1">
+      <c r="L112" s="1">
         <v>2.4974999999999992</v>
       </c>
-      <c r="L112" s="1">
-        <v>0</v>
-      </c>
       <c r="M112" s="1">
+        <v>0</v>
+      </c>
+      <c r="N112" s="1">
         <v>0.35749999999999987</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -5034,29 +5374,32 @@
       <c r="F113">
         <v>3</v>
       </c>
-      <c r="G113" s="1">
+      <c r="G113">
+        <v>170.09</v>
+      </c>
+      <c r="H113" s="1">
         <v>398.34999999999997</v>
       </c>
-      <c r="H113" s="1">
+      <c r="I113" s="1">
         <v>40.712499999999999</v>
       </c>
-      <c r="I113" s="1">
+      <c r="J113" s="1">
         <v>16.072499999999994</v>
       </c>
-      <c r="J113" s="1">
+      <c r="K113" s="1">
         <v>31.784999999999989</v>
       </c>
-      <c r="K113" s="1">
+      <c r="L113" s="1">
         <v>9.2899999999999991</v>
       </c>
-      <c r="L113" s="1">
+      <c r="M113" s="1">
         <v>0.35749999999999993</v>
       </c>
-      <c r="M113" s="1">
+      <c r="N113" s="1">
         <v>0.35499999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -5075,29 +5418,32 @@
       <c r="F114">
         <v>2</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114">
+        <v>503.52</v>
+      </c>
+      <c r="H114" s="1">
         <v>367.76</v>
       </c>
-      <c r="H114" s="1">
+      <c r="I114" s="1">
         <v>37.855000000000004</v>
       </c>
-      <c r="I114" s="1">
+      <c r="J114" s="1">
         <v>7.8575000000000008</v>
       </c>
-      <c r="J114" s="1">
+      <c r="K114" s="1">
         <v>20.360000000000003</v>
       </c>
-      <c r="K114" s="1">
+      <c r="L114" s="1">
         <v>28.930000000000007</v>
       </c>
-      <c r="L114" s="1">
-        <v>0</v>
-      </c>
       <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="1">
         <v>2.1400000000000006</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -5116,29 +5462,32 @@
       <c r="F115">
         <v>9</v>
       </c>
-      <c r="G115" s="1">
+      <c r="G115">
+        <v>244.18</v>
+      </c>
+      <c r="H115" s="1">
         <v>118.51</v>
       </c>
-      <c r="H115" s="1">
+      <c r="I115" s="1">
         <v>46.666666666666671</v>
       </c>
-      <c r="I115" s="1">
+      <c r="J115" s="1">
         <v>23.333333333333336</v>
       </c>
-      <c r="J115" s="1">
+      <c r="K115" s="1">
         <v>13.810000000000002</v>
       </c>
-      <c r="K115" s="1">
+      <c r="L115" s="1">
         <v>7.6166666666666689</v>
       </c>
-      <c r="L115" s="1">
-        <v>0</v>
-      </c>
       <c r="M115" s="1">
+        <v>0</v>
+      </c>
+      <c r="N115" s="1">
         <v>4.7633333333333336</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -5157,29 +5506,32 @@
       <c r="F116">
         <v>3</v>
       </c>
-      <c r="G116" s="1">
+      <c r="G116">
+        <v>169.39</v>
+      </c>
+      <c r="H116" s="1">
         <v>327.43999999999994</v>
       </c>
-      <c r="H116" s="1">
+      <c r="I116" s="1">
         <v>43.57</v>
       </c>
-      <c r="I116" s="1">
+      <c r="J116" s="1">
         <v>2.5</v>
       </c>
-      <c r="J116" s="1">
+      <c r="K116" s="1">
         <v>31.427500000000002</v>
       </c>
-      <c r="K116" s="1">
+      <c r="L116" s="1">
         <v>2.8574999999999999</v>
       </c>
-      <c r="L116" s="1">
+      <c r="M116" s="1">
         <v>15.0025</v>
       </c>
-      <c r="M116" s="1">
+      <c r="N116" s="1">
         <v>3.2149999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -5198,29 +5550,32 @@
       <c r="F117">
         <v>8</v>
       </c>
-      <c r="G117" s="1">
+      <c r="G117">
+        <v>94.73</v>
+      </c>
+      <c r="H117" s="1">
         <v>170.89999999999998</v>
       </c>
-      <c r="H117" s="1">
+      <c r="I117" s="1">
         <v>21.784999999999997</v>
       </c>
-      <c r="I117" s="1">
+      <c r="J117" s="1">
         <v>13.929999999999998</v>
       </c>
-      <c r="J117" s="1">
+      <c r="K117" s="1">
         <v>25.357499999999998</v>
       </c>
-      <c r="K117" s="1">
+      <c r="L117" s="1">
         <v>6.4299999999999979</v>
       </c>
-      <c r="L117" s="1">
+      <c r="M117" s="1">
         <v>28.567500000000003</v>
       </c>
-      <c r="M117" s="1">
+      <c r="N117" s="1">
         <v>3.5724999999999993</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -5239,29 +5594,32 @@
       <c r="F118">
         <v>7.5</v>
       </c>
-      <c r="G118" s="1">
+      <c r="G118">
+        <v>172.06</v>
+      </c>
+      <c r="H118" s="1">
         <v>164.60999999999999</v>
       </c>
-      <c r="H118" s="1">
+      <c r="I118" s="1">
         <v>7.1425000000000018</v>
       </c>
-      <c r="I118" s="1">
-        <v>0</v>
-      </c>
       <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
         <v>82.855000000000004</v>
       </c>
-      <c r="K118" s="1">
-        <v>0</v>
-      </c>
       <c r="L118" s="1">
         <v>0</v>
       </c>
       <c r="M118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -5280,29 +5638,32 @@
       <c r="F119">
         <v>3.5</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119">
+        <v>350.9</v>
+      </c>
+      <c r="H119" s="1">
         <v>194.5</v>
       </c>
-      <c r="H119" s="1">
+      <c r="I119" s="1">
         <v>59.999999999999986</v>
       </c>
-      <c r="I119" s="1">
+      <c r="J119" s="1">
         <v>4.2849999999999993</v>
       </c>
-      <c r="J119" s="1">
+      <c r="K119" s="1">
         <v>20.712499999999995</v>
       </c>
-      <c r="K119" s="1">
+      <c r="L119" s="1">
         <v>10.714999999999998</v>
       </c>
-      <c r="L119" s="1">
-        <v>0</v>
-      </c>
       <c r="M119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -5321,29 +5682,32 @@
       <c r="F120">
         <v>16</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120">
+        <v>259.75</v>
+      </c>
+      <c r="H120" s="1">
         <v>254</v>
       </c>
-      <c r="H120" s="1">
+      <c r="I120" s="1">
         <v>17.855</v>
       </c>
-      <c r="I120" s="1">
+      <c r="J120" s="1">
         <v>6.4275000000000002</v>
       </c>
-      <c r="J120" s="1">
+      <c r="K120" s="1">
         <v>35.355000000000004</v>
       </c>
-      <c r="K120" s="1">
+      <c r="L120" s="1">
         <v>30.004999999999999</v>
       </c>
-      <c r="L120" s="1">
+      <c r="M120" s="1">
         <v>2.5</v>
       </c>
-      <c r="M120" s="1">
+      <c r="N120" s="1">
         <v>7.5</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -5362,25 +5726,28 @@
       <c r="F121">
         <v>4</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121">
+        <v>160.38999999999999</v>
+      </c>
+      <c r="H121" s="1">
         <v>235.23</v>
       </c>
-      <c r="H121" s="1">
+      <c r="I121" s="1">
         <v>17.142499999999998</v>
       </c>
-      <c r="I121" s="1">
+      <c r="J121" s="1">
         <v>14.2875</v>
       </c>
-      <c r="J121" s="1">
+      <c r="K121" s="1">
         <v>48.929999999999993</v>
       </c>
-      <c r="K121" s="1">
+      <c r="L121" s="1">
         <v>5.3574999999999999</v>
       </c>
-      <c r="L121" s="1">
+      <c r="M121" s="1">
         <v>8.57</v>
       </c>
-      <c r="M121" s="1">
+      <c r="N121" s="1">
         <v>0</v>
       </c>
     </row>
